--- a/medicine/Pharmacie/Sotalol/Sotalol.xlsx
+++ b/medicine/Pharmacie/Sotalol/Sotalol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sotalol est une molécule utilisée comme médicament antiarythmique [2].
+Le sotalol est une molécule utilisée comme médicament antiarythmique .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'énantiomère l-sotalol agit comme bêta-bloquant avec une activité sur le canal potassique ce qui explique sa classification d'antiarythmique de classe III. Le d-sotalol quant à lui a une activité seulement sur le canal potassique, expliqué par un des pharmacophores actifs du sotalol, soit son groupement méthane sulfonanilide. Cet énantiomère n'a aucune activité bêta-bloquante.
 </t>
@@ -543,10 +557,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le sotalol est utilisé dans la prévention des troubles du rythme cardiaque. À l'étage supra ventriculaire, il diminue le risque de récidive d'une fibrillation atriale, tout en étant inférieur à l'amiodarone dans cette indication[3]. À l'étage ventriculaire, il réduit le risque de survenue d'une tachycardie ventriculaire[4] mais augmente la mortalité après un infarctus du myocarde avec une fraction d'éjection basse[5].
+Le sotalol est utilisé dans la prévention des troubles du rythme cardiaque. À l'étage supra ventriculaire, il diminue le risque de récidive d'une fibrillation atriale, tout en étant inférieur à l'amiodarone dans cette indication. À l'étage ventriculaire, il réduit le risque de survenue d'une tachycardie ventriculaire mais augmente la mortalité après un infarctus du myocarde avec une fraction d'éjection basse.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tout bêta-bloquant, il peut entraîner une bradycardie excessive. Il a également un effet pro-arythmique, c'est-à-dire qu'il peut favoriser la survenue d'autres troubles du rythme[6] comme des torsades de pointe.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tout bêta-bloquant, il peut entraîner une bradycardie excessive. Il a également un effet pro-arythmique, c'est-à-dire qu'il peut favoriser la survenue d'autres troubles du rythme comme des torsades de pointe.
 </t>
         </is>
       </c>
